--- a/data/trans_orig/P6519-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5628748A-AF68-4EEF-BCAE-37216E8BB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3D76C9-4B3B-419D-B72D-A812E721FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD302481-4408-4A29-B68E-9DB26BE45E42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08A7DA34-B791-42B5-9900-1717D78933C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,373 +104,382 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>9,99%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>3,56%</t>
@@ -479,28 +488,34 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D1396D-D9C1-4475-B82D-14C31C5A0C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C7D25-D0D9-45F3-8675-BE6A4263A186}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1308,16 +1323,16 @@
         <v>492</v>
       </c>
       <c r="I9" s="7">
-        <v>513793</v>
+        <v>513794</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1462</v>
@@ -1326,13 +1341,13 @@
         <v>1527490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,13 +1362,13 @@
         <v>70586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1362,13 +1377,13 @@
         <v>46707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -1377,13 +1392,13 @@
         <v>117293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,13 +1413,13 @@
         <v>21431</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1413,13 +1428,13 @@
         <v>8831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -1428,13 +1443,13 @@
         <v>30263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,10 +1464,10 @@
         <v>13961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>80</v>
@@ -1512,7 +1527,7 @@
         <v>555</v>
       </c>
       <c r="I13" s="7">
-        <v>579038</v>
+        <v>579039</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1688,10 +1703,10 @@
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1721,13 @@
         <v>21456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1721,13 +1736,13 @@
         <v>7192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -1736,13 +1751,13 @@
         <v>28647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1825,13 @@
         <v>1627279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>817</v>
@@ -1825,13 +1840,13 @@
         <v>852811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>2376</v>
@@ -1840,13 +1855,13 @@
         <v>2480090</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1876,13 @@
         <v>164816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -1876,13 +1891,13 @@
         <v>104429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -1891,13 +1906,13 @@
         <v>269245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1927,13 @@
         <v>64821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -1927,13 +1942,13 @@
         <v>39115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -1942,13 +1957,13 @@
         <v>103936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1978,13 @@
         <v>43719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1978,13 +1993,13 @@
         <v>21312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -1993,13 +2008,13 @@
         <v>65032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3D76C9-4B3B-419D-B72D-A812E721FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB7CC97-A21A-47EA-A699-04112BD54340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08A7DA34-B791-42B5-9900-1717D78933C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C80CDAFF-C379-4202-BDA2-811DBC6C5B09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,388 +134,376 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
     <t>4,3%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C7D25-D0D9-45F3-8675-BE6A4263A186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6AF6F-1E15-4D44-A823-908A3DC0BF57}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1323,7 +1311,7 @@
         <v>492</v>
       </c>
       <c r="I9" s="7">
-        <v>513794</v>
+        <v>513793</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1446,10 +1434,10 @@
         <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,10 +1452,10 @@
         <v>13961</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>80</v>
@@ -1500,7 +1488,7 @@
         <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1515,7 @@
         <v>555</v>
       </c>
       <c r="I13" s="7">
-        <v>579039</v>
+        <v>579038</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1556,7 +1544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1568,13 +1556,13 @@
         <v>264886</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1583,13 +1571,13 @@
         <v>201563</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -1598,13 +1586,13 @@
         <v>466450</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1607,13 @@
         <v>80312</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -1634,13 +1622,13 @@
         <v>50235</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>126</v>
@@ -1649,13 +1637,13 @@
         <v>130547</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1658,13 @@
         <v>37084</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1685,13 +1673,13 @@
         <v>30284</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -1700,13 +1688,13 @@
         <v>67368</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1709,13 @@
         <v>21456</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1736,13 +1724,13 @@
         <v>7192</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -1751,13 +1739,13 @@
         <v>28647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1813,13 @@
         <v>1627279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>817</v>
@@ -1840,13 +1828,13 @@
         <v>852811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>2376</v>
@@ -1855,13 +1843,13 @@
         <v>2480090</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1864,13 @@
         <v>164816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -1891,13 +1879,13 @@
         <v>104429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -1906,13 +1894,13 @@
         <v>269245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1915,13 @@
         <v>64821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -1942,13 +1930,13 @@
         <v>39115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -1957,13 +1945,13 @@
         <v>103936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1966,13 @@
         <v>43719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1993,13 +1981,13 @@
         <v>21312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -2008,13 +1996,13 @@
         <v>65032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB7CC97-A21A-47EA-A699-04112BD54340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058181F9-6669-4B72-81FC-40C3EC36D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C80CDAFF-C379-4202-BDA2-811DBC6C5B09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63E14AC3-6575-434D-93AA-A820186A0608}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -155,7 +155,7 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,346 +164,343 @@
     <t>2,2%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6AF6F-1E15-4D44-A823-908A3DC0BF57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781357A-6E70-48B4-9933-41E16101B1EB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1317,10 +1314,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1462</v>
@@ -1329,13 +1326,13 @@
         <v>1527490</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,13 +1347,13 @@
         <v>70586</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1365,13 +1362,13 @@
         <v>46707</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -1380,13 +1377,13 @@
         <v>117293</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,13 +1398,13 @@
         <v>21431</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1416,13 +1413,13 @@
         <v>8831</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -1431,10 +1428,10 @@
         <v>30263</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>77</v>
@@ -1488,7 +1485,7 @@
         <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,7 +1541,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,13 +1553,13 @@
         <v>264886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1571,13 +1568,13 @@
         <v>201563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -1586,13 +1583,13 @@
         <v>466450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,13 +1604,13 @@
         <v>80312</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -1622,13 +1619,13 @@
         <v>50235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>126</v>
@@ -1637,13 +1634,13 @@
         <v>130547</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1655,13 @@
         <v>37084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1673,13 +1670,13 @@
         <v>30284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -1688,10 +1685,10 @@
         <v>67368</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -1724,13 +1721,13 @@
         <v>7192</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -1739,13 +1736,13 @@
         <v>28647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1810,13 @@
         <v>1627279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>817</v>
@@ -1828,13 +1825,13 @@
         <v>852811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>2376</v>
@@ -1843,13 +1840,13 @@
         <v>2480090</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,10 +1861,10 @@
         <v>164816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>132</v>
@@ -1969,10 +1966,10 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1981,13 +1978,13 @@
         <v>21312</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -1996,13 +1993,13 @@
         <v>65032</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058181F9-6669-4B72-81FC-40C3EC36D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53EB2A8-15BB-478F-B605-729459591D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63E14AC3-6575-434D-93AA-A820186A0608}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{70DF290B-0B61-487E-A252-FDB61C2123F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781357A-6E70-48B4-9933-41E16101B1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C71AB-F29C-4140-A67E-B72C5A101117}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1036,7 @@
         <v>332</v>
       </c>
       <c r="D4" s="7">
-        <v>348696</v>
+        <v>348695</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>377222</v>
+        <v>377221</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1308,7 +1308,7 @@
         <v>492</v>
       </c>
       <c r="I9" s="7">
-        <v>513793</v>
+        <v>513794</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1512,7 +1512,7 @@
         <v>555</v>
       </c>
       <c r="I13" s="7">
-        <v>579038</v>
+        <v>579039</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1550,7 +1550,7 @@
         <v>257</v>
       </c>
       <c r="D14" s="7">
-        <v>264886</v>
+        <v>264887</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1754,7 +1754,7 @@
         <v>388</v>
       </c>
       <c r="D18" s="7">
-        <v>403738</v>
+        <v>403739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
